--- a/test/xuxihai123.xlsx
+++ b/test/xuxihai123.xlsx
@@ -33,7 +33,7 @@
     <t>20170101</t>
   </si>
   <si>
-    <t>本月出差工作日天数:</t>
+    <t>本月出差工作日天数</t>
   </si>
   <si>
     <t>9天</t>
@@ -48,7 +48,7 @@
     <t>星期日</t>
   </si>
   <si>
-    <t>2017-01-02</t>
+    <t>2017-1-2</t>
   </si>
   <si>
     <t>星期</t>
@@ -99,7 +99,7 @@
     <t>星期六</t>
   </si>
   <si>
-    <t>2017-01-09</t>
+    <t>2017-1-9</t>
   </si>
   <si>
     <t>无</t>
@@ -108,7 +108,7 @@
     <t>年假</t>
   </si>
   <si>
-    <t>2017-01-16</t>
+    <t>2017-1-16</t>
   </si>
   <si>
     <t>是</t>
@@ -120,13 +120,13 @@
     <t>交易调试</t>
   </si>
   <si>
-    <t>2017-01-23</t>
+    <t>2017-1-23</t>
   </si>
   <si>
     <t>调休</t>
   </si>
   <si>
-    <t>2017-01-30</t>
+    <t>2017-1-30</t>
   </si>
   <si>
     <t>20170201</t>
@@ -135,136 +135,136 @@
     <t>xx天</t>
   </si>
   <si>
-    <t>2017-02-06</t>
-  </si>
-  <si>
-    <t>2017-02-13</t>
-  </si>
-  <si>
-    <t>2017-02-20</t>
-  </si>
-  <si>
-    <t>2017-02-27</t>
+    <t>2017-2-6</t>
+  </si>
+  <si>
+    <t>2017-2-13</t>
+  </si>
+  <si>
+    <t>2017-2-20</t>
+  </si>
+  <si>
+    <t>2017-2-27</t>
   </si>
   <si>
     <t>20170301</t>
   </si>
   <si>
-    <t>2017-03-06</t>
-  </si>
-  <si>
-    <t>2017-03-13</t>
-  </si>
-  <si>
-    <t>2017-03-20</t>
-  </si>
-  <si>
-    <t>2017-03-27</t>
+    <t>2017-3-6</t>
+  </si>
+  <si>
+    <t>2017-3-13</t>
+  </si>
+  <si>
+    <t>2017-3-20</t>
+  </si>
+  <si>
+    <t>2017-3-27</t>
   </si>
   <si>
     <t>20170401</t>
   </si>
   <si>
-    <t>2017-04-03</t>
-  </si>
-  <si>
-    <t>2017-04-10</t>
-  </si>
-  <si>
-    <t>2017-04-17</t>
-  </si>
-  <si>
-    <t>2017-04-24</t>
+    <t>2017-4-3</t>
+  </si>
+  <si>
+    <t>2017-4-10</t>
+  </si>
+  <si>
+    <t>2017-4-17</t>
+  </si>
+  <si>
+    <t>2017-4-24</t>
   </si>
   <si>
     <t>20170501</t>
   </si>
   <si>
-    <t>2017-05-01</t>
-  </si>
-  <si>
-    <t>2017-05-08</t>
-  </si>
-  <si>
-    <t>2017-05-15</t>
-  </si>
-  <si>
-    <t>2017-05-22</t>
-  </si>
-  <si>
-    <t>2017-05-29</t>
+    <t>2017-5-1</t>
+  </si>
+  <si>
+    <t>2017-5-8</t>
+  </si>
+  <si>
+    <t>2017-5-15</t>
+  </si>
+  <si>
+    <t>2017-5-22</t>
+  </si>
+  <si>
+    <t>2017-5-29</t>
   </si>
   <si>
     <t>20170601</t>
   </si>
   <si>
-    <t>2017-06-05</t>
-  </si>
-  <si>
-    <t>2017-06-12</t>
-  </si>
-  <si>
-    <t>2017-06-19</t>
-  </si>
-  <si>
-    <t>2017-06-26</t>
+    <t>2017-6-5</t>
+  </si>
+  <si>
+    <t>2017-6-12</t>
+  </si>
+  <si>
+    <t>2017-6-19</t>
+  </si>
+  <si>
+    <t>2017-6-26</t>
   </si>
   <si>
     <t>20170701</t>
   </si>
   <si>
-    <t>2017-07-03</t>
-  </si>
-  <si>
-    <t>2017-07-10</t>
-  </si>
-  <si>
-    <t>2017-07-17</t>
-  </si>
-  <si>
-    <t>2017-07-24</t>
-  </si>
-  <si>
-    <t>2017-07-31</t>
+    <t>2017-7-3</t>
+  </si>
+  <si>
+    <t>2017-7-10</t>
+  </si>
+  <si>
+    <t>2017-7-17</t>
+  </si>
+  <si>
+    <t>2017-7-24</t>
+  </si>
+  <si>
+    <t>2017-7-31</t>
   </si>
   <si>
     <t>20170801</t>
   </si>
   <si>
-    <t>2017-08-07</t>
-  </si>
-  <si>
-    <t>2017-08-14</t>
-  </si>
-  <si>
-    <t>2017-08-21</t>
-  </si>
-  <si>
-    <t>2017-08-28</t>
+    <t>2017-8-7</t>
+  </si>
+  <si>
+    <t>2017-8-14</t>
+  </si>
+  <si>
+    <t>2017-8-21</t>
+  </si>
+  <si>
+    <t>2017-8-28</t>
   </si>
   <si>
     <t>20170901</t>
   </si>
   <si>
-    <t>2017-09-04</t>
-  </si>
-  <si>
-    <t>2017-09-11</t>
-  </si>
-  <si>
-    <t>2017-09-18</t>
-  </si>
-  <si>
-    <t>2017-09-25</t>
+    <t>2017-9-4</t>
+  </si>
+  <si>
+    <t>2017-9-11</t>
+  </si>
+  <si>
+    <t>2017-9-18</t>
+  </si>
+  <si>
+    <t>2017-9-25</t>
   </si>
   <si>
     <t>20171001</t>
   </si>
   <si>
-    <t>2017-10-02</t>
-  </si>
-  <si>
-    <t>2017-10-09</t>
+    <t>2017-10-2</t>
+  </si>
+  <si>
+    <t>2017-10-9</t>
   </si>
   <si>
     <t>2017-10-16</t>
@@ -279,7 +279,7 @@
     <t>20171101</t>
   </si>
   <si>
-    <t>2017-11-06</t>
+    <t>2017-11-6</t>
   </si>
   <si>
     <t>2017-11-13</t>
@@ -294,7 +294,7 @@
     <t>20171201</t>
   </si>
   <si>
-    <t>2017-12-04</t>
+    <t>2017-12-4</t>
   </si>
   <si>
     <t>2017-12-11</t>
@@ -319,12 +319,22 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -339,8 +349,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,22 +703,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -724,22 +736,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -847,22 +859,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -985,22 +997,22 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1153,22 +1165,22 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1276,22 +1288,22 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1324,22 +1336,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1357,22 +1369,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1420,22 +1432,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1483,22 +1495,22 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1546,22 +1558,22 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1609,22 +1621,22 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1657,22 +1669,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1710,22 +1722,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1773,22 +1785,22 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1836,22 +1848,22 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1899,22 +1911,22 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1957,22 +1969,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2000,22 +2012,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2063,22 +2075,22 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2126,22 +2138,22 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2189,22 +2201,22 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2262,22 +2274,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2315,22 +2327,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2378,22 +2390,22 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2441,22 +2453,22 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2504,22 +2516,22 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2552,22 +2564,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2605,22 +2617,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2668,22 +2680,22 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2731,22 +2743,22 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2794,22 +2806,22 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2857,22 +2869,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2895,22 +2907,22 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2958,22 +2970,22 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3021,22 +3033,22 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3084,22 +3096,22 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3157,22 +3169,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3185,22 +3197,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3248,22 +3260,22 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3311,22 +3323,22 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3374,22 +3386,22 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3437,22 +3449,22 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3490,22 +3502,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3538,22 +3550,22 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3601,22 +3613,22 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3664,22 +3676,22 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3727,22 +3739,22 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3790,22 +3802,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3828,22 +3840,22 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3891,22 +3903,22 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3954,22 +3966,22 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4017,22 +4029,22 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4080,22 +4092,22 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4123,22 +4135,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4181,22 +4193,22 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4244,22 +4256,22 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4307,22 +4319,22 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4370,22 +4382,22 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4428,22 +4440,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4471,22 +4483,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4534,22 +4546,22 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4597,22 +4609,22 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4660,22 +4672,22 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
     </row>
